--- a/Check.xlsx
+++ b/Check.xlsx
@@ -13,11 +13,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Чек-лист'!$E$6:$F$6</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="94">
   <si>
     <t>Модуль</t>
   </si>
@@ -367,6 +368,18 @@
   </si>
   <si>
     <t xml:space="preserve">Просмотр ссылки "Пользовательское соглашение" </t>
+  </si>
+  <si>
+    <t>Не пройден.Причина: элемент не кликабелен.</t>
+  </si>
+  <si>
+    <t>Условия политики конфиденциальности не отображаются на экране</t>
+  </si>
+  <si>
+    <t>Пользовательское соглашение не отображается на экране</t>
+  </si>
+  <si>
+    <t>Не пройден.Причина: элемент кликабелен только в случае будущей даты заявки</t>
   </si>
 </sst>
 </file>
@@ -1106,12 +1119,42 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1137,36 +1180,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1406,8 +1419,8 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1416,9 +1429,9 @@
     <col min="2" max="2" width="36" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="73.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
@@ -1451,38 +1464,38 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="65" t="s">
+      <c r="F5" s="68"/>
+      <c r="G5" s="54" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="62"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="66"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48">
@@ -1507,7 +1520,7 @@
       <c r="A8" s="49">
         <v>2</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="58" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="35" t="s">
@@ -1526,7 +1539,7 @@
       <c r="A9" s="50">
         <v>3</v>
       </c>
-      <c r="B9" s="69"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="36" t="s">
         <v>63</v>
       </c>
@@ -1543,7 +1556,7 @@
       <c r="A10" s="50">
         <v>4</v>
       </c>
-      <c r="B10" s="69"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="36" t="s">
         <v>64</v>
       </c>
@@ -1560,7 +1573,7 @@
       <c r="A11" s="50">
         <v>5</v>
       </c>
-      <c r="B11" s="69"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="36" t="s">
         <v>65</v>
       </c>
@@ -1577,7 +1590,7 @@
       <c r="A12" s="50">
         <v>6</v>
       </c>
-      <c r="B12" s="69"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="36" t="s">
         <v>66</v>
       </c>
@@ -1594,7 +1607,7 @@
       <c r="A13" s="50">
         <v>7</v>
       </c>
-      <c r="B13" s="69"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="36" t="s">
         <v>67</v>
       </c>
@@ -1611,7 +1624,7 @@
       <c r="A14" s="50">
         <v>8</v>
       </c>
-      <c r="B14" s="69"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="36" t="s">
         <v>69</v>
       </c>
@@ -1628,7 +1641,7 @@
       <c r="A15" s="51">
         <v>9</v>
       </c>
-      <c r="B15" s="70"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="52" t="s">
         <v>42</v>
       </c>
@@ -1645,7 +1658,7 @@
       <c r="A16" s="49">
         <v>10</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="61" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="39" t="s">
@@ -1664,7 +1677,7 @@
       <c r="A17" s="50">
         <v>11</v>
       </c>
-      <c r="B17" s="72"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="29" t="s">
         <v>44</v>
       </c>
@@ -1681,7 +1694,7 @@
       <c r="A18" s="50">
         <v>12</v>
       </c>
-      <c r="B18" s="72"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="40" t="s">
         <v>70</v>
       </c>
@@ -1698,7 +1711,7 @@
       <c r="A19" s="50">
         <v>13</v>
       </c>
-      <c r="B19" s="72"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="40" t="s">
         <v>71</v>
       </c>
@@ -1715,7 +1728,7 @@
       <c r="A20" s="51">
         <v>14</v>
       </c>
-      <c r="B20" s="73"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="41" t="s">
         <v>72</v>
       </c>
@@ -1732,7 +1745,7 @@
       <c r="A21" s="49">
         <v>15</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="64" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="31" t="s">
@@ -1751,7 +1764,7 @@
       <c r="A22" s="50">
         <v>16</v>
       </c>
-      <c r="B22" s="74"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="20" t="s">
         <v>35</v>
       </c>
@@ -1768,7 +1781,7 @@
       <c r="A23" s="50">
         <v>17</v>
       </c>
-      <c r="B23" s="74"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="20" t="s">
         <v>36</v>
       </c>
@@ -1785,7 +1798,7 @@
       <c r="A24" s="50">
         <v>18</v>
       </c>
-      <c r="B24" s="74"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="20" t="s">
         <v>37</v>
       </c>
@@ -1802,7 +1815,7 @@
       <c r="A25" s="50">
         <v>19</v>
       </c>
-      <c r="B25" s="74"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="42" t="s">
         <v>73</v>
       </c>
@@ -1819,7 +1832,7 @@
       <c r="A26" s="50">
         <v>20</v>
       </c>
-      <c r="B26" s="74"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="42" t="s">
         <v>6</v>
       </c>
@@ -1836,7 +1849,7 @@
       <c r="A27" s="50">
         <v>21</v>
       </c>
-      <c r="B27" s="74"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="42" t="s">
         <v>74</v>
       </c>
@@ -1853,7 +1866,7 @@
       <c r="A28" s="50">
         <v>22</v>
       </c>
-      <c r="B28" s="74"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="42" t="s">
         <v>75</v>
       </c>
@@ -1870,7 +1883,7 @@
       <c r="A29" s="50">
         <v>23</v>
       </c>
-      <c r="B29" s="74"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="42" t="s">
         <v>76</v>
       </c>
@@ -1887,7 +1900,7 @@
       <c r="A30" s="50">
         <v>24</v>
       </c>
-      <c r="B30" s="74"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="42" t="s">
         <v>77</v>
       </c>
@@ -1904,7 +1917,7 @@
       <c r="A31" s="50">
         <v>25</v>
       </c>
-      <c r="B31" s="74"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="42" t="s">
         <v>78</v>
       </c>
@@ -1921,7 +1934,7 @@
       <c r="A32" s="50">
         <v>26</v>
       </c>
-      <c r="B32" s="74"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="42" t="s">
         <v>79</v>
       </c>
@@ -1938,7 +1951,7 @@
       <c r="A33" s="50">
         <v>27</v>
       </c>
-      <c r="B33" s="74"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="42" t="s">
         <v>80</v>
       </c>
@@ -1955,7 +1968,7 @@
       <c r="A34" s="50">
         <v>28</v>
       </c>
-      <c r="B34" s="74"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="42" t="s">
         <v>81</v>
       </c>
@@ -1966,13 +1979,15 @@
         <v>46</v>
       </c>
       <c r="F34" s="10"/>
-      <c r="G34" s="13"/>
+      <c r="G34" s="13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="50">
         <v>29</v>
       </c>
-      <c r="B35" s="74"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="42" t="s">
         <v>82</v>
       </c>
@@ -1989,7 +2004,7 @@
       <c r="A36" s="50">
         <v>30</v>
       </c>
-      <c r="B36" s="74"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="42" t="s">
         <v>83</v>
       </c>
@@ -2006,7 +2021,7 @@
       <c r="A37" s="50">
         <v>31</v>
       </c>
-      <c r="B37" s="74"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="20" t="s">
         <v>31</v>
       </c>
@@ -2023,7 +2038,7 @@
       <c r="A38" s="50">
         <v>32</v>
       </c>
-      <c r="B38" s="74"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="20" t="s">
         <v>32</v>
       </c>
@@ -2040,7 +2055,7 @@
       <c r="A39" s="50">
         <v>33</v>
       </c>
-      <c r="B39" s="74"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="20" t="s">
         <v>84</v>
       </c>
@@ -2057,7 +2072,7 @@
       <c r="A40" s="50">
         <v>34</v>
       </c>
-      <c r="B40" s="74"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="20" t="s">
         <v>85</v>
       </c>
@@ -2074,7 +2089,7 @@
       <c r="A41" s="50">
         <v>35</v>
       </c>
-      <c r="B41" s="74"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="20" t="s">
         <v>86</v>
       </c>
@@ -2085,13 +2100,15 @@
         <v>46</v>
       </c>
       <c r="F41" s="10"/>
-      <c r="G41" s="13"/>
+      <c r="G41" s="13" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="51">
         <v>36</v>
       </c>
-      <c r="B42" s="56"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="32" t="s">
         <v>33</v>
       </c>
@@ -2102,13 +2119,15 @@
         <v>46</v>
       </c>
       <c r="F42" s="16"/>
-      <c r="G42" s="14"/>
+      <c r="G42" s="14" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="49">
         <v>37</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="64" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="28" t="s">
@@ -2127,7 +2146,7 @@
       <c r="A44" s="50">
         <v>38</v>
       </c>
-      <c r="B44" s="74"/>
+      <c r="B44" s="65"/>
       <c r="C44" s="43" t="s">
         <v>21</v>
       </c>
@@ -2144,7 +2163,7 @@
       <c r="A45" s="50">
         <v>39</v>
       </c>
-      <c r="B45" s="74"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="29" t="s">
         <v>22</v>
       </c>
@@ -2161,7 +2180,7 @@
       <c r="A46" s="50">
         <v>40</v>
       </c>
-      <c r="B46" s="74"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="29" t="s">
         <v>23</v>
       </c>
@@ -2178,7 +2197,7 @@
       <c r="A47" s="50">
         <v>41</v>
       </c>
-      <c r="B47" s="74"/>
+      <c r="B47" s="65"/>
       <c r="C47" s="29" t="s">
         <v>24</v>
       </c>
@@ -2195,7 +2214,7 @@
       <c r="A48" s="50">
         <v>42</v>
       </c>
-      <c r="B48" s="74"/>
+      <c r="B48" s="65"/>
       <c r="C48" s="29" t="s">
         <v>25</v>
       </c>
@@ -2212,7 +2231,7 @@
       <c r="A49" s="50">
         <v>43</v>
       </c>
-      <c r="B49" s="74"/>
+      <c r="B49" s="65"/>
       <c r="C49" s="29" t="s">
         <v>26</v>
       </c>
@@ -2229,7 +2248,7 @@
       <c r="A50" s="50">
         <v>44</v>
       </c>
-      <c r="B50" s="74"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="29" t="s">
         <v>27</v>
       </c>
@@ -2246,7 +2265,7 @@
       <c r="A51" s="50">
         <v>45</v>
       </c>
-      <c r="B51" s="74"/>
+      <c r="B51" s="65"/>
       <c r="C51" s="29" t="s">
         <v>28</v>
       </c>
@@ -2263,7 +2282,7 @@
       <c r="A52" s="50">
         <v>46</v>
       </c>
-      <c r="B52" s="74"/>
+      <c r="B52" s="65"/>
       <c r="C52" s="29" t="s">
         <v>29</v>
       </c>
@@ -2280,7 +2299,7 @@
       <c r="A53" s="50">
         <v>47</v>
       </c>
-      <c r="B53" s="74"/>
+      <c r="B53" s="65"/>
       <c r="C53" s="29" t="s">
         <v>30</v>
       </c>
@@ -2297,7 +2316,7 @@
       <c r="A54" s="51">
         <v>48</v>
       </c>
-      <c r="B54" s="56"/>
+      <c r="B54" s="66"/>
       <c r="C54" s="30" t="s">
         <v>45</v>
       </c>
@@ -2333,7 +2352,7 @@
       <c r="A56" s="50">
         <v>50</v>
       </c>
-      <c r="B56" s="74"/>
+      <c r="B56" s="65"/>
       <c r="C56" s="33" t="s">
         <v>48</v>
       </c>
@@ -2350,7 +2369,7 @@
       <c r="A57" s="50">
         <v>51</v>
       </c>
-      <c r="B57" s="74"/>
+      <c r="B57" s="65"/>
       <c r="C57" s="29" t="s">
         <v>49</v>
       </c>
@@ -2367,7 +2386,7 @@
       <c r="A58" s="50">
         <v>52</v>
       </c>
-      <c r="B58" s="74"/>
+      <c r="B58" s="65"/>
       <c r="C58" s="29" t="s">
         <v>50</v>
       </c>
@@ -2384,7 +2403,7 @@
       <c r="A59" s="50">
         <v>53</v>
       </c>
-      <c r="B59" s="74"/>
+      <c r="B59" s="65"/>
       <c r="C59" s="29" t="s">
         <v>51</v>
       </c>
@@ -2401,7 +2420,7 @@
       <c r="A60" s="50">
         <v>54</v>
       </c>
-      <c r="B60" s="74"/>
+      <c r="B60" s="65"/>
       <c r="C60" s="29" t="s">
         <v>52</v>
       </c>
@@ -2418,7 +2437,7 @@
       <c r="A61" s="50">
         <v>55</v>
       </c>
-      <c r="B61" s="74"/>
+      <c r="B61" s="65"/>
       <c r="C61" s="34" t="s">
         <v>53</v>
       </c>
@@ -2435,7 +2454,7 @@
       <c r="A62" s="50">
         <v>56</v>
       </c>
-      <c r="B62" s="74"/>
+      <c r="B62" s="65"/>
       <c r="C62" s="34" t="s">
         <v>54</v>
       </c>
@@ -2452,7 +2471,7 @@
       <c r="A63" s="50">
         <v>57</v>
       </c>
-      <c r="B63" s="74"/>
+      <c r="B63" s="65"/>
       <c r="C63" s="34" t="s">
         <v>55</v>
       </c>
@@ -2469,7 +2488,7 @@
       <c r="A64" s="50">
         <v>58</v>
       </c>
-      <c r="B64" s="74"/>
+      <c r="B64" s="65"/>
       <c r="C64" s="34" t="s">
         <v>56</v>
       </c>
@@ -2486,7 +2505,7 @@
       <c r="A65" s="50">
         <v>59</v>
       </c>
-      <c r="B65" s="74"/>
+      <c r="B65" s="65"/>
       <c r="C65" s="34" t="s">
         <v>57</v>
       </c>
@@ -2503,7 +2522,7 @@
       <c r="A66" s="50">
         <v>60</v>
       </c>
-      <c r="B66" s="74"/>
+      <c r="B66" s="65"/>
       <c r="C66" s="34" t="s">
         <v>58</v>
       </c>
@@ -2520,7 +2539,7 @@
       <c r="A67" s="50">
         <v>61</v>
       </c>
-      <c r="B67" s="74"/>
+      <c r="B67" s="65"/>
       <c r="C67" s="34" t="s">
         <v>59</v>
       </c>
@@ -2531,13 +2550,15 @@
         <v>46</v>
       </c>
       <c r="F67" s="10"/>
-      <c r="G67" s="13"/>
+      <c r="G67" s="13" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="50">
         <v>62</v>
       </c>
-      <c r="B68" s="74"/>
+      <c r="B68" s="65"/>
       <c r="C68" s="34" t="s">
         <v>60</v>
       </c>
@@ -2554,7 +2575,7 @@
       <c r="A69" s="50">
         <v>63</v>
       </c>
-      <c r="B69" s="74"/>
+      <c r="B69" s="65"/>
       <c r="C69" s="29" t="s">
         <v>61</v>
       </c>
@@ -2571,7 +2592,7 @@
       <c r="A70" s="51">
         <v>64</v>
       </c>
-      <c r="B70" s="56"/>
+      <c r="B70" s="66"/>
       <c r="C70" s="30" t="s">
         <v>62</v>
       </c>
@@ -2607,7 +2628,7 @@
       <c r="A72" s="49">
         <v>66</v>
       </c>
-      <c r="B72" s="55" t="s">
+      <c r="B72" s="64" t="s">
         <v>39</v>
       </c>
       <c r="C72" s="46" t="s">
@@ -2620,13 +2641,15 @@
         <v>47</v>
       </c>
       <c r="F72" s="15"/>
-      <c r="G72" s="12"/>
+      <c r="G72" s="12" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="73" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="51">
         <v>67</v>
       </c>
-      <c r="B73" s="56"/>
+      <c r="B73" s="66"/>
       <c r="C73" s="47" t="s">
         <v>89</v>
       </c>
@@ -2637,15 +2660,12 @@
         <v>47</v>
       </c>
       <c r="F73" s="16"/>
-      <c r="G73" s="14"/>
+      <c r="G73" s="14" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B21:B42"/>
     <mergeCell ref="B72:B73"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A5:A6"/>
@@ -2653,6 +2673,11 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B43:B54"/>
     <mergeCell ref="B55:B70"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B21:B42"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:F73">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Passed">

--- a/Check.xlsx
+++ b/Check.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="94">
   <si>
     <t>Модуль</t>
   </si>
@@ -370,23 +370,23 @@
     <t xml:space="preserve">Просмотр ссылки "Пользовательское соглашение" </t>
   </si>
   <si>
-    <t>Не пройден.Причина: элемент не кликабелен.</t>
-  </si>
-  <si>
     <t>Условия политики конфиденциальности не отображаются на экране</t>
   </si>
   <si>
     <t>Пользовательское соглашение не отображается на экране</t>
   </si>
   <si>
-    <t>Не пройден.Причина: элемент кликабелен только в случае будущей даты заявки</t>
+    <t>Причина: элемент кликабелен только в случае будущей даты заявки</t>
+  </si>
+  <si>
+    <t>Причина: элемент не кликабелен.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -486,6 +486,23 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -974,7 +991,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -991,19 +1008,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1013,7 +1023,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1185,12 +1194,49 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1419,14 +1465,14 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="36" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -1464,1204 +1510,1338 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="54" t="s">
+      <c r="F5" s="62"/>
+      <c r="G5" s="48" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="72"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="55"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48">
+      <c r="A7" s="42">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="8"/>
+      <c r="D7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="76"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="49">
+      <c r="A8" s="43">
         <v>2</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="12"/>
+      <c r="D8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="77"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="50">
+      <c r="A9" s="44">
         <v>3</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="36" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="78"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="50">
-        <v>4</v>
-      </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="36" t="s">
+      <c r="A10" s="44">
+        <v>4</v>
+      </c>
+      <c r="B10" s="53"/>
+      <c r="C10" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="78"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="50">
+      <c r="A11" s="44">
         <v>5</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="36" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="79"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="50">
+      <c r="A12" s="44">
         <v>6</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="36" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="79"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="50">
+      <c r="A13" s="44">
         <v>7</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="36" t="s">
+      <c r="B13" s="53"/>
+      <c r="C13" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="79"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="50">
+      <c r="A14" s="44">
         <v>8</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="53"/>
+      <c r="C14" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="13"/>
+      <c r="D14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="79"/>
     </row>
     <row r="15" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51">
+      <c r="A15" s="45">
         <v>9</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="52" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="14"/>
+      <c r="D15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="80"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="49">
+      <c r="A16" s="43">
         <v>10</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="12"/>
+      <c r="D16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="77"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="50">
+      <c r="A17" s="44">
         <v>11</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="29" t="s">
+      <c r="B17" s="56"/>
+      <c r="C17" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="13"/>
+      <c r="D17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="79"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="50">
+      <c r="A18" s="44">
         <v>12</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="40" t="s">
+      <c r="B18" s="56"/>
+      <c r="C18" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="13"/>
+      <c r="D18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="79"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="50">
+      <c r="A19" s="44">
         <v>13</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="40" t="s">
+      <c r="B19" s="56"/>
+      <c r="C19" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="13"/>
+      <c r="D19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="79"/>
     </row>
     <row r="20" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51">
+      <c r="A20" s="45">
         <v>14</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="41" t="s">
+      <c r="B20" s="57"/>
+      <c r="C20" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="14"/>
+      <c r="D20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="49">
+      <c r="A21" s="43">
         <v>15</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="12"/>
+      <c r="D21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="77"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="50">
+      <c r="A22" s="44">
         <v>16</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="59"/>
+      <c r="C22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="13"/>
+      <c r="D22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="79"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="50">
+      <c r="A23" s="44">
         <v>17</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="59"/>
+      <c r="C23" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="13"/>
+      <c r="D23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="79"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="50">
+      <c r="A24" s="44">
         <v>18</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="59"/>
+      <c r="C24" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="13"/>
+      <c r="D24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="79"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="50">
+      <c r="A25" s="44">
         <v>19</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="42" t="s">
+      <c r="B25" s="59"/>
+      <c r="C25" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="13"/>
+      <c r="D25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="79"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="50">
+      <c r="A26" s="44">
         <v>20</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="42" t="s">
+      <c r="B26" s="59"/>
+      <c r="C26" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="13"/>
+      <c r="D26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="79"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="50">
+      <c r="A27" s="44">
         <v>21</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="42" t="s">
+      <c r="B27" s="59"/>
+      <c r="C27" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="13"/>
+      <c r="D27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="79"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="50">
+      <c r="A28" s="44">
         <v>22</v>
       </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="42" t="s">
+      <c r="B28" s="59"/>
+      <c r="C28" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="13"/>
+      <c r="D28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="79"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="50">
+      <c r="A29" s="44">
         <v>23</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="42" t="s">
+      <c r="B29" s="59"/>
+      <c r="C29" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="13"/>
+      <c r="D29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="79"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="50">
+      <c r="A30" s="44">
         <v>24</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="42" t="s">
+      <c r="B30" s="59"/>
+      <c r="C30" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="13"/>
+      <c r="D30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="79"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="50">
+      <c r="A31" s="44">
         <v>25</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="42" t="s">
+      <c r="B31" s="59"/>
+      <c r="C31" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="13"/>
+      <c r="D31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="79"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="50">
+      <c r="A32" s="44">
         <v>26</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="42" t="s">
+      <c r="B32" s="59"/>
+      <c r="C32" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="13"/>
+      <c r="D32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="79"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="50">
+      <c r="A33" s="44">
         <v>27</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="42" t="s">
+      <c r="B33" s="59"/>
+      <c r="C33" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="13"/>
+      <c r="D33" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="79"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="50">
+      <c r="A34" s="44">
         <v>28</v>
       </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="42" t="s">
+      <c r="B34" s="59"/>
+      <c r="C34" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="13" t="s">
+      <c r="D34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="79" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="44">
+        <v>29</v>
+      </c>
+      <c r="B35" s="59"/>
+      <c r="C35" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="79"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="44">
+        <v>30</v>
+      </c>
+      <c r="B36" s="59"/>
+      <c r="C36" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="79"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="44">
+        <v>31</v>
+      </c>
+      <c r="B37" s="59"/>
+      <c r="C37" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="79"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="44">
+        <v>32</v>
+      </c>
+      <c r="B38" s="59"/>
+      <c r="C38" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="79"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="44">
+        <v>33</v>
+      </c>
+      <c r="B39" s="59"/>
+      <c r="C39" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="79"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="44">
+        <v>34</v>
+      </c>
+      <c r="B40" s="59"/>
+      <c r="C40" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="79"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="44">
+        <v>35</v>
+      </c>
+      <c r="B41" s="59"/>
+      <c r="C41" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="50">
+    <row r="42" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="45">
+        <v>36</v>
+      </c>
+      <c r="B42" s="60"/>
+      <c r="C42" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="43">
+        <v>37</v>
+      </c>
+      <c r="B43" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" s="77"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="44">
+        <v>38</v>
+      </c>
+      <c r="B44" s="59"/>
+      <c r="C44" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="79"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="44">
+        <v>39</v>
+      </c>
+      <c r="B45" s="59"/>
+      <c r="C45" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G45" s="79"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="44">
+        <v>40</v>
+      </c>
+      <c r="B46" s="59"/>
+      <c r="C46" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G46" s="79"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="44">
+        <v>41</v>
+      </c>
+      <c r="B47" s="59"/>
+      <c r="C47" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G47" s="79"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="44">
+        <v>42</v>
+      </c>
+      <c r="B48" s="59"/>
+      <c r="C48" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" s="79"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="44">
+        <v>43</v>
+      </c>
+      <c r="B49" s="59"/>
+      <c r="C49" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G49" s="79"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="44">
+        <v>44</v>
+      </c>
+      <c r="B50" s="59"/>
+      <c r="C50" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" s="79"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="44">
+        <v>45</v>
+      </c>
+      <c r="B51" s="59"/>
+      <c r="C51" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51" s="79"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="44">
+        <v>46</v>
+      </c>
+      <c r="B52" s="59"/>
+      <c r="C52" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="50">
+      <c r="D52" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52" s="79"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="44">
+        <v>47</v>
+      </c>
+      <c r="B53" s="59"/>
+      <c r="C53" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="50">
-        <v>31</v>
-      </c>
-      <c r="B37" s="65"/>
-      <c r="C37" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="50">
-        <v>32</v>
-      </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="50">
-        <v>33</v>
-      </c>
-      <c r="B39" s="65"/>
-      <c r="C39" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="50">
-        <v>34</v>
-      </c>
-      <c r="B40" s="65"/>
-      <c r="C40" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="13"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="50">
-        <v>35</v>
-      </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="13" t="s">
+      <c r="D53" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G53" s="79"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="45">
+        <v>48</v>
+      </c>
+      <c r="B54" s="60"/>
+      <c r="C54" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="G54" s="80"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="43">
+        <v>49</v>
+      </c>
+      <c r="B55" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="G55" s="77"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="44">
+        <v>50</v>
+      </c>
+      <c r="B56" s="59"/>
+      <c r="C56" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G56" s="79"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="44">
+        <v>51</v>
+      </c>
+      <c r="B57" s="59"/>
+      <c r="C57" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F57" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G57" s="79"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="44">
+        <v>52</v>
+      </c>
+      <c r="B58" s="59"/>
+      <c r="C58" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G58" s="79"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="44">
+        <v>53</v>
+      </c>
+      <c r="B59" s="59"/>
+      <c r="C59" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G59" s="79"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="44">
+        <v>54</v>
+      </c>
+      <c r="B60" s="59"/>
+      <c r="C60" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G60" s="79"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="44">
+        <v>55</v>
+      </c>
+      <c r="B61" s="59"/>
+      <c r="C61" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G61" s="79"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="44">
+        <v>56</v>
+      </c>
+      <c r="B62" s="59"/>
+      <c r="C62" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G62" s="79"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="44">
+        <v>57</v>
+      </c>
+      <c r="B63" s="59"/>
+      <c r="C63" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G63" s="79"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="44">
+        <v>58</v>
+      </c>
+      <c r="B64" s="59"/>
+      <c r="C64" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G64" s="79"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="44">
+        <v>59</v>
+      </c>
+      <c r="B65" s="59"/>
+      <c r="C65" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G65" s="79"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="44">
+        <v>60</v>
+      </c>
+      <c r="B66" s="59"/>
+      <c r="C66" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F66" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G66" s="79"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="44">
+        <v>61</v>
+      </c>
+      <c r="B67" s="59"/>
+      <c r="C67" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F67" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="G67" s="79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="44">
+        <v>62</v>
+      </c>
+      <c r="B68" s="59"/>
+      <c r="C68" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G68" s="79"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="44">
+        <v>63</v>
+      </c>
+      <c r="B69" s="59"/>
+      <c r="C69" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F69" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G69" s="79"/>
+    </row>
+    <row r="70" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="45">
+        <v>64</v>
+      </c>
+      <c r="B70" s="60"/>
+      <c r="C70" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="G70" s="80"/>
+    </row>
+    <row r="71" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="42">
+        <v>65</v>
+      </c>
+      <c r="B71" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F71" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G71" s="76"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="43">
+        <v>66</v>
+      </c>
+      <c r="B72" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="G72" s="77" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="51">
-        <v>36</v>
-      </c>
-      <c r="B42" s="66"/>
-      <c r="C42" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="49">
-        <v>37</v>
-      </c>
-      <c r="B43" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="50">
-        <v>38</v>
-      </c>
-      <c r="B44" s="65"/>
-      <c r="C44" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="13"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="50">
-        <v>39</v>
-      </c>
-      <c r="B45" s="65"/>
-      <c r="C45" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="13"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="50">
-        <v>40</v>
-      </c>
-      <c r="B46" s="65"/>
-      <c r="C46" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="13"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="50">
-        <v>41</v>
-      </c>
-      <c r="B47" s="65"/>
-      <c r="C47" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="13"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="50">
-        <v>42</v>
-      </c>
-      <c r="B48" s="65"/>
-      <c r="C48" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="13"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="50">
-        <v>43</v>
-      </c>
-      <c r="B49" s="65"/>
-      <c r="C49" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="13"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="50">
-        <v>44</v>
-      </c>
-      <c r="B50" s="65"/>
-      <c r="C50" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F50" s="10"/>
-      <c r="G50" s="13"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="50">
-        <v>45</v>
-      </c>
-      <c r="B51" s="65"/>
-      <c r="C51" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="13"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="50">
-        <v>46</v>
-      </c>
-      <c r="B52" s="65"/>
-      <c r="C52" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="13"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="50">
+    <row r="73" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="45">
+        <v>67</v>
+      </c>
+      <c r="B73" s="60"/>
+      <c r="C73" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="65"/>
-      <c r="C53" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F53" s="10"/>
-      <c r="G53" s="13"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="51">
-        <v>48</v>
-      </c>
-      <c r="B54" s="66"/>
-      <c r="C54" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="14"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="49">
-        <v>49</v>
-      </c>
-      <c r="B55" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F55" s="15"/>
-      <c r="G55" s="12"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="50">
-        <v>50</v>
-      </c>
-      <c r="B56" s="65"/>
-      <c r="C56" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="13"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="50">
-        <v>51</v>
-      </c>
-      <c r="B57" s="65"/>
-      <c r="C57" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="13"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="50">
-        <v>52</v>
-      </c>
-      <c r="B58" s="65"/>
-      <c r="C58" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="13"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="50">
-        <v>53</v>
-      </c>
-      <c r="B59" s="65"/>
-      <c r="C59" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="13"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="50">
-        <v>54</v>
-      </c>
-      <c r="B60" s="65"/>
-      <c r="C60" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F60" s="10"/>
-      <c r="G60" s="13"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="50">
-        <v>55</v>
-      </c>
-      <c r="B61" s="65"/>
-      <c r="C61" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F61" s="10"/>
-      <c r="G61" s="13"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="50">
-        <v>56</v>
-      </c>
-      <c r="B62" s="65"/>
-      <c r="C62" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F62" s="10"/>
-      <c r="G62" s="13"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="50">
-        <v>57</v>
-      </c>
-      <c r="B63" s="65"/>
-      <c r="C63" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F63" s="10"/>
-      <c r="G63" s="13"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="50">
-        <v>58</v>
-      </c>
-      <c r="B64" s="65"/>
-      <c r="C64" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F64" s="10"/>
-      <c r="G64" s="13"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="50">
-        <v>59</v>
-      </c>
-      <c r="B65" s="65"/>
-      <c r="C65" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F65" s="10"/>
-      <c r="G65" s="13"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="50">
-        <v>60</v>
-      </c>
-      <c r="B66" s="65"/>
-      <c r="C66" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F66" s="10"/>
-      <c r="G66" s="13"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="50">
-        <v>61</v>
-      </c>
-      <c r="B67" s="65"/>
-      <c r="C67" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F67" s="10"/>
-      <c r="G67" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="50">
-        <v>62</v>
-      </c>
-      <c r="B68" s="65"/>
-      <c r="C68" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E68" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="13"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="50">
-        <v>63</v>
-      </c>
-      <c r="B69" s="65"/>
-      <c r="C69" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F69" s="10"/>
-      <c r="G69" s="13"/>
-    </row>
-    <row r="70" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="51">
-        <v>64</v>
-      </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F70" s="16"/>
-      <c r="G70" s="14"/>
-    </row>
-    <row r="71" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="48">
-        <v>65</v>
-      </c>
-      <c r="B71" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F71" s="17"/>
-      <c r="G71" s="8"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="49">
-        <v>66</v>
-      </c>
-      <c r="B72" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="C72" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="53" t="s">
+      <c r="F73" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="F72" s="15"/>
-      <c r="G72" s="12" t="s">
+      <c r="G73" s="80" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="51">
-        <v>67</v>
-      </c>
-      <c r="B73" s="66"/>
-      <c r="C73" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F73" s="16"/>
-      <c r="G73" s="14" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
